--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/109.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/109.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1655028769271258</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.608509204952462</v>
+        <v>-1.707499005467981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1016787050349876</v>
+        <v>0.1373213990302507</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1072658571587745</v>
+        <v>-0.08222603239969033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.170993996326626</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.684307601591987</v>
+        <v>-1.769234218895874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07679218532544879</v>
+        <v>0.03417484159991478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08752454692159799</v>
+        <v>0.003929945396741087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1962845041497371</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.804847711929319</v>
+        <v>-2.02681371302185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1105718579567125</v>
+        <v>0.05201370917463727</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1856456188230262</v>
+        <v>-0.1403753677163111</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2433847048390899</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.984008023092589</v>
+        <v>-2.155013965668134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052164015592593</v>
+        <v>-0.07656396590314639</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1634908490915776</v>
+        <v>-0.08119377839941787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.302000423049758</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.116403723928099</v>
+        <v>-2.260772549133105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038556367385324</v>
+        <v>-0.1477442304311273</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1569994752793975</v>
+        <v>-0.01710204735279872</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3469114454749354</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.916858951343607</v>
+        <v>-2.056118338254478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.232899067157316</v>
+        <v>-0.02242830278843365</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1911061986830247</v>
+        <v>-0.02140480907670666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.349864254729123</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.656109692812268</v>
+        <v>-1.747781732296152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2457547905977671</v>
+        <v>-0.1568067489313976</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1994080321279316</v>
+        <v>-0.02935331088361361</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2931234447479865</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.24324459390556</v>
+        <v>-1.386761481049522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3510841199240115</v>
+        <v>0.06849765212099648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1694098840521215</v>
+        <v>0.01713024018664663</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1648234567029168</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7617470143895079</v>
+        <v>-1.005153091672988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3418244949314685</v>
+        <v>0.06833850687908742</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1331656502434039</v>
+        <v>0.04816794250318375</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03676872608451093</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1883014463003891</v>
+        <v>-0.5086038763877576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2527805420112197</v>
+        <v>-0.06745472586396702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1016870134034124</v>
+        <v>0.08508233838562838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3007242129721597</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5889288740292203</v>
+        <v>0.3059846944439327</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02115076070888854</v>
+        <v>-0.3662506475722504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04046618882364036</v>
+        <v>0.2465665773363123</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.607135850090637</v>
       </c>
       <c r="E13" t="n">
-        <v>1.143884393095071</v>
+        <v>0.7545844703756305</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3053564218447213</v>
+        <v>-0.5706865812612865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2169451216679566</v>
+        <v>0.4517777965616208</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.9286095111544094</v>
       </c>
       <c r="E14" t="n">
-        <v>1.871388395544512</v>
+        <v>1.518304965720062</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8137072058487667</v>
+        <v>-1.090976178504692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2324595926819525</v>
+        <v>0.4512331986237119</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.24629198925367</v>
       </c>
       <c r="E15" t="n">
-        <v>2.688530590487202</v>
+        <v>2.343089052370567</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.189149812137393</v>
+        <v>-1.459936171269684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4579815408998919</v>
+        <v>0.707384035692734</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.549568677661379</v>
       </c>
       <c r="E16" t="n">
-        <v>3.396214440102558</v>
+        <v>3.069143227065736</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.654192649668905</v>
+        <v>-1.848076815804943</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6315228569852999</v>
+        <v>0.9127690006408606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.828526240267288</v>
       </c>
       <c r="E17" t="n">
-        <v>4.082193214798465</v>
+        <v>3.845812888928437</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.953759476769188</v>
+        <v>-1.989837995119587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7774897048258061</v>
+        <v>1.034348665218919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.081153576364874</v>
       </c>
       <c r="E18" t="n">
-        <v>4.642128957902405</v>
+        <v>4.400142047363288</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.435092070850968</v>
+        <v>-2.451039446123918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9853479912399321</v>
+        <v>1.254049401698405</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.304534359689216</v>
       </c>
       <c r="E19" t="n">
-        <v>5.091520079899375</v>
+        <v>4.864367257963891</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.752359060957337</v>
+        <v>-2.642223983339866</v>
       </c>
       <c r="G19" t="n">
-        <v>1.140304355176163</v>
+        <v>1.387966472644642</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.495304022689401</v>
       </c>
       <c r="E20" t="n">
-        <v>5.385055448336114</v>
+        <v>5.076865577210924</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.07322287953566</v>
+        <v>-2.873331345529577</v>
       </c>
       <c r="G20" t="n">
-        <v>1.321430621093842</v>
+        <v>1.601866438058948</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.651908436196388</v>
       </c>
       <c r="E21" t="n">
-        <v>5.769908064570648</v>
+        <v>5.529455664575075</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.40745051829007</v>
+        <v>-3.203373756431398</v>
       </c>
       <c r="G21" t="n">
-        <v>1.488733151686797</v>
+        <v>1.797469080797987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.77166577141176</v>
       </c>
       <c r="E22" t="n">
-        <v>6.075655275239747</v>
+        <v>5.917407962906608</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.659274502841684</v>
+        <v>-3.379248959390123</v>
       </c>
       <c r="G22" t="n">
-        <v>1.544280681305418</v>
+        <v>1.865929275732605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.857261937862984</v>
       </c>
       <c r="E23" t="n">
-        <v>6.10517598758983</v>
+        <v>5.930640378754513</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.885501654287533</v>
+        <v>-3.557609894223621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.658221374271842</v>
+        <v>1.989006949651935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.913348088724023</v>
       </c>
       <c r="E24" t="n">
-        <v>6.232663006743705</v>
+        <v>6.126681035920824</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.105867442672428</v>
+        <v>-3.71149385283708</v>
       </c>
       <c r="G24" t="n">
-        <v>1.779329443316537</v>
+        <v>2.115733283750447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.942671122140551</v>
       </c>
       <c r="E25" t="n">
-        <v>6.177460048474538</v>
+        <v>6.012095001698219</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.273866416204746</v>
+        <v>-3.972237271176055</v>
       </c>
       <c r="G25" t="n">
-        <v>1.748209978306909</v>
+        <v>1.98133439693421</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.951778615751881</v>
       </c>
       <c r="E26" t="n">
-        <v>6.073593687335384</v>
+        <v>5.960293955480869</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.28766606073597</v>
+        <v>-3.923754184245295</v>
       </c>
       <c r="G26" t="n">
-        <v>1.696997331470196</v>
+        <v>1.884365302976509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.945064670918287</v>
       </c>
       <c r="E27" t="n">
-        <v>5.928222539115969</v>
+        <v>5.76462561057774</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.294804965876469</v>
+        <v>-3.875842706142126</v>
       </c>
       <c r="G27" t="n">
-        <v>1.727810186380733</v>
+        <v>1.962105563576943</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.923977476137271</v>
       </c>
       <c r="E28" t="n">
-        <v>5.87647113453371</v>
+        <v>5.878813051671528</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.245506442086936</v>
+        <v>-3.854410660215677</v>
       </c>
       <c r="G28" t="n">
-        <v>1.70124607141474</v>
+        <v>1.875854682654602</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.888899444235585</v>
       </c>
       <c r="E29" t="n">
-        <v>5.599812461979784</v>
+        <v>5.654667928803315</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.22081702886967</v>
+        <v>-3.822172798368413</v>
       </c>
       <c r="G29" t="n">
-        <v>1.647241812628209</v>
+        <v>1.786829710359535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.840458007121776</v>
       </c>
       <c r="E30" t="n">
-        <v>5.514748600155352</v>
+        <v>5.618336092109143</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.22743688691385</v>
+        <v>-3.930184236037657</v>
       </c>
       <c r="G30" t="n">
-        <v>1.669790795344203</v>
+        <v>1.820390375777162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.777344351197556</v>
       </c>
       <c r="E31" t="n">
-        <v>5.271237399409327</v>
+        <v>5.344632556891217</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.14991271343087</v>
+        <v>-3.962110377617512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.496453885991522</v>
+        <v>1.596562083344677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.700074844858352</v>
       </c>
       <c r="E32" t="n">
-        <v>4.920814177206512</v>
+        <v>4.988443604777403</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.984375380979824</v>
+        <v>-3.75063482205816</v>
       </c>
       <c r="G32" t="n">
-        <v>1.408823259623273</v>
+        <v>1.56247142047005</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.608733042313471</v>
       </c>
       <c r="E33" t="n">
-        <v>4.684581316193666</v>
+        <v>4.726932931166655</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.850886834148269</v>
+        <v>-3.801778846634601</v>
       </c>
       <c r="G33" t="n">
-        <v>1.430163322519995</v>
+        <v>1.626008333242124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.502877460815991</v>
       </c>
       <c r="E34" t="n">
-        <v>4.350964707565301</v>
+        <v>4.489435668507082</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.710193680012125</v>
+        <v>-3.777695353375062</v>
       </c>
       <c r="G34" t="n">
-        <v>1.345826564644835</v>
+        <v>1.477616345522618</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.384472101362051</v>
       </c>
       <c r="E35" t="n">
-        <v>3.985002193530945</v>
+        <v>4.050736478679836</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.622035246259013</v>
+        <v>-3.766602638004383</v>
       </c>
       <c r="G35" t="n">
-        <v>1.313784349241753</v>
+        <v>1.473974985583892</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.253498402626772</v>
       </c>
       <c r="E36" t="n">
-        <v>3.708366881746473</v>
+        <v>3.844906199063983</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.46253740273601</v>
+        <v>-3.631460586709874</v>
       </c>
       <c r="G36" t="n">
-        <v>1.165358780416156</v>
+        <v>1.330904873155748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.110250582876532</v>
       </c>
       <c r="E37" t="n">
-        <v>3.339974847688845</v>
+        <v>3.51052306518789</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.342783528295633</v>
+        <v>-3.564682367175982</v>
       </c>
       <c r="G37" t="n">
-        <v>1.048744739395279</v>
+        <v>1.270929017677401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.958888191413015</v>
       </c>
       <c r="E38" t="n">
-        <v>3.060123049960102</v>
+        <v>3.327633061176394</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.161058642660682</v>
+        <v>-3.412329268985842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.942828470736489</v>
+        <v>1.131327979513256</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.801422859107481</v>
       </c>
       <c r="E39" t="n">
-        <v>2.659861086174119</v>
+        <v>2.901558907191236</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.033806691249443</v>
+        <v>-3.271148458787334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8503504847064229</v>
+        <v>1.05655599668164</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.642441504295896</v>
       </c>
       <c r="E40" t="n">
-        <v>2.313209168190121</v>
+        <v>2.516639128744521</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.93190117469638</v>
+        <v>-3.110650482322059</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7585485009424475</v>
+        <v>0.9558856808134855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.486211227394561</v>
       </c>
       <c r="E41" t="n">
-        <v>2.062371446123916</v>
+        <v>2.235845599997142</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.79520782230528</v>
+        <v>-3.054021057068074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6740277770078339</v>
+        <v>0.8239396747899754</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.333632666233814</v>
       </c>
       <c r="E42" t="n">
-        <v>1.669904679095294</v>
+        <v>1.835141241639613</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.645441199308184</v>
+        <v>-2.817648031438501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6226589050253931</v>
+        <v>0.744021022437906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.188396381597525</v>
       </c>
       <c r="E43" t="n">
-        <v>1.547586230183236</v>
+        <v>1.731847219352095</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.618434689770646</v>
+        <v>-2.763908041356425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5333579836411444</v>
+        <v>0.6106908908242146</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.051539132082363</v>
       </c>
       <c r="E44" t="n">
-        <v>1.30539199281521</v>
+        <v>1.461363090174622</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.567414769281932</v>
+        <v>-2.698459925633351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4630741886409814</v>
+        <v>0.4966056530967906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9236524302678104</v>
       </c>
       <c r="E45" t="n">
-        <v>1.119687016084441</v>
+        <v>1.291631039558395</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.450330592775782</v>
+        <v>-2.540344017628394</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3817100886789124</v>
+        <v>0.4352690327977162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8076781656989667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8682827953589636</v>
+        <v>1.002069922025109</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.439445204234012</v>
+        <v>-2.505517490515949</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4204291040017202</v>
+        <v>0.4826519734919762</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7022149906069165</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5072070622848787</v>
+        <v>0.6291239979719369</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.400657566650931</v>
+        <v>-2.459183594375006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3348834263072886</v>
+        <v>0.3024265572463882</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6066339979568361</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3714941321868242</v>
+        <v>0.5370854864172343</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.292829365017097</v>
+        <v>-2.443342072588647</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2628461135499443</v>
+        <v>0.2627263896064898</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5207022936373999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1566436754653364</v>
+        <v>0.3133710777358398</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.24054285280952</v>
+        <v>-2.394938558278842</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2122131058053215</v>
+        <v>0.1632985746636983</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4430242601795799</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06105286690545302</v>
+        <v>0.2264733955092268</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.104321825975829</v>
+        <v>-2.268888226446421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1255037697824357</v>
+        <v>0.04815334202227466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3748178608137896</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.002938120822893433</v>
+        <v>0.07637023142717618</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.061629289773613</v>
+        <v>-2.241789733879156</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1306372988700707</v>
+        <v>0.04624943931172972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3161821448642774</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06946083194087557</v>
+        <v>-0.02888317539834101</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.963113274863594</v>
+        <v>-2.106134475680692</v>
       </c>
       <c r="G52" t="n">
-        <v>0.09216357162653557</v>
+        <v>-0.005142793440165569</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2675240081520466</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2062892387803843</v>
+        <v>-0.2956587824249057</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.896187590472521</v>
+        <v>-2.04639222789689</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03591667897236886</v>
+        <v>0.02488747569364455</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2308629558196981</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1057882884907749</v>
+        <v>-0.1084689367856833</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.895137085871113</v>
+        <v>-2.081193204167744</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04057378046224697</v>
+        <v>-0.13759397610313</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2059164284832762</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2846135186171814</v>
+        <v>-0.413289016917056</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.893506942177613</v>
+        <v>-2.13307674310223</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08138212460314509</v>
+        <v>-0.1733315732243022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.19274477020455</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3484497412478916</v>
+        <v>-0.5357257297244776</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.800731836361047</v>
+        <v>-1.958863804895005</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09527448218814137</v>
+        <v>-0.1425727400931287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1902291864818647</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3361079547354403</v>
+        <v>-0.5704617338552865</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.781051848143689</v>
+        <v>-1.954417958458188</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1105319847381373</v>
+        <v>-0.1835154086583904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1955925961997242</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3364350055078039</v>
+        <v>-0.6226861940189997</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.770101487461873</v>
+        <v>-1.983702143017543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1676534461987583</v>
+        <v>-0.2513726037314631</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2064473516936081</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4149505516445101</v>
+        <v>-0.838888655272669</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.731271508484157</v>
+        <v>-1.913493540494062</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2129207772092916</v>
+        <v>-0.2653219031920048</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2198453715643845</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3366715332985311</v>
+        <v>-0.7828125882451386</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.707608509074799</v>
+        <v>-1.912572980172744</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1919880677299336</v>
+        <v>-0.2442139879417377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2340590264165151</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4544842738020449</v>
+        <v>-0.9536382148814563</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.752556089553424</v>
+        <v>-1.990572399309314</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3015062750289951</v>
+        <v>-0.3878578992696082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2480925138952041</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5803374991421929</v>
+        <v>-1.093160410448692</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.720959188818068</v>
+        <v>-1.861573500357304</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3250597708315342</v>
+        <v>-0.4048017573646037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2612361502211534</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6177045099328192</v>
+        <v>-1.13517475431268</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.850367631259579</v>
+        <v>-2.020087271467033</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.376171674349975</v>
+        <v>-0.5183015158075732</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2736476867452552</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7095079537448855</v>
+        <v>-1.227370951061201</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.863900817014212</v>
+        <v>-2.009699029300218</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4219383418075991</v>
+        <v>-0.5904497922198266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2852322529872518</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8092818000852223</v>
+        <v>-1.391294930371793</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.793053443450958</v>
+        <v>-1.93148571311833</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4869426029110362</v>
+        <v>-0.633220440994906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2955942222206283</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9061662112536509</v>
+        <v>-1.607168880805008</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.967856971110957</v>
+        <v>-2.114739999128508</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4845802450999459</v>
+        <v>-0.6617366402584438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3043366199600321</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9323507137160075</v>
+        <v>-1.658175660860904</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.970217138849911</v>
+        <v>-2.063858783208431</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4748534047183122</v>
+        <v>-0.6844798093705287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3103977814313131</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9197461185471927</v>
+        <v>-1.628370239133093</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.043926936695391</v>
+        <v>-2.171626392846493</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5526374667614731</v>
+        <v>-0.6892673070606182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3124330129317258</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9157017853353756</v>
+        <v>-1.589719846070558</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.080187961057154</v>
+        <v>-2.238335990120111</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5077555884469397</v>
+        <v>-0.6814648100628021</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3084969498029434</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9737270165642691</v>
+        <v>-1.728478436486248</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.188188448365716</v>
+        <v>-2.346792742457082</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5545515898086544</v>
+        <v>-0.7102335976460672</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2972528986742979</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9947268882558089</v>
+        <v>-1.768619538649601</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.310744155092546</v>
+        <v>-2.524049150909808</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6754406516397129</v>
+        <v>-0.8811044857732031</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2781976451040345</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.01110132759535</v>
+        <v>-1.803585500354728</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.408744043002429</v>
+        <v>-2.713816711453529</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6130016950320023</v>
+        <v>-0.7578997876699635</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2527365851378082</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9173136784277388</v>
+        <v>-1.691848749981531</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.412799326574928</v>
+        <v>-2.752905118943337</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.678733060084712</v>
+        <v>-0.8640569642637531</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2229969036960111</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9076058186712869</v>
+        <v>-1.772617150322509</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.431249224275696</v>
+        <v>-2.852961484589264</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7359275239498785</v>
+        <v>-0.9000938712435617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1917342445040939</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7161964340493383</v>
+        <v>-1.516866366430396</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.451354086487509</v>
+        <v>-2.823053859495091</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7408624864971498</v>
+        <v>-0.9654091225903623</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1606430300683299</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6497905267786288</v>
+        <v>-1.533427691925573</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.326060059566179</v>
+        <v>-2.68356305496181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7170914435290653</v>
+        <v>-0.9236210861804643</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1310180828864812</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4754388840027666</v>
+        <v>-1.336562107587899</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.401437962355522</v>
+        <v>-2.698825667680124</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6161451785717288</v>
+        <v>-0.8047541909553145</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1043191950409221</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2804509215100007</v>
+        <v>-1.071196907017152</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.303727893991685</v>
+        <v>-2.667574798342314</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6424990466126308</v>
+        <v>-0.8693846797474789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.08103173939368893</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.09435173179468707</v>
+        <v>-0.8692751761406609</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.285412320715281</v>
+        <v>-2.588867985905699</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5478090877248381</v>
+        <v>-0.7992074682579523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.06180290454549526</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08081169771972044</v>
+        <v>-0.6240206779740903</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.222910582039661</v>
+        <v>-2.579669682932974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5031257759506682</v>
+        <v>-0.7410975542397862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.04681351711778869</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2233795536045912</v>
+        <v>-0.5242774926436625</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.107454359154874</v>
+        <v>-2.482941496910273</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3927592807107887</v>
+        <v>-0.7094145106670674</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03569683523114101</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4671929843054349</v>
+        <v>-0.2374393647999214</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.033487592845394</v>
+        <v>-2.429992122869423</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3393682421224394</v>
+        <v>-0.6574397187268995</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0282044455712092</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6948699635055555</v>
+        <v>-0.003386355586802403</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.980108234641772</v>
+        <v>-2.348841189928627</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3124434952779921</v>
+        <v>-0.644478871823903</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.02385835129448928</v>
       </c>
       <c r="E84" t="n">
-        <v>1.074999324165999</v>
+        <v>0.3529778022979201</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.936410455328965</v>
+        <v>-2.32211865974477</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.27625620334482</v>
+        <v>-0.5887999378770997</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02198297406396488</v>
       </c>
       <c r="E85" t="n">
-        <v>1.208469620396418</v>
+        <v>0.4391381602386242</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.785204224914233</v>
+        <v>-2.076892632515973</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2624733493666419</v>
+        <v>-0.5652727229401969</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.02218793016874779</v>
       </c>
       <c r="E86" t="n">
-        <v>1.528579324135786</v>
+        <v>0.7489705854660865</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.785630558956778</v>
+        <v>-2.161868161430905</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1769072309989376</v>
+        <v>-0.453362956868227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0239727337258215</v>
       </c>
       <c r="E87" t="n">
-        <v>1.756491371078543</v>
+        <v>1.00012659801611</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.664383785343447</v>
+        <v>-2.046590794437254</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1202325442541347</v>
+        <v>-0.4208914873264176</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02714238125196181</v>
       </c>
       <c r="E88" t="n">
-        <v>1.925567860101952</v>
+        <v>1.119787759402714</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.496085501952493</v>
+        <v>-1.816577738291679</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.113478361785591</v>
+        <v>-0.3629523989348877</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03139465835171788</v>
       </c>
       <c r="E89" t="n">
-        <v>2.126733286067353</v>
+        <v>1.399413249677366</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.436170968493963</v>
+        <v>-1.731324070215429</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.002770215292438933</v>
+        <v>-0.2380803259118303</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03527462490423131</v>
       </c>
       <c r="E90" t="n">
-        <v>2.279839769072403</v>
+        <v>1.619762247509216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.214443685264295</v>
+        <v>-1.515248633145669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02707462773382578</v>
+        <v>-0.1833825442821177</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03694828153670734</v>
       </c>
       <c r="E91" t="n">
-        <v>2.337654753376206</v>
+        <v>1.64252001710221</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.025107568931437</v>
+        <v>-1.297282433798182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05548424348672724</v>
+        <v>-0.1025907831716849</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03360976628616111</v>
       </c>
       <c r="E92" t="n">
-        <v>2.333689262761297</v>
+        <v>1.615411304198308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8599746698015724</v>
+        <v>-1.10654175120187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06649738623645156</v>
+        <v>-0.1220225632135887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02250945095547671</v>
       </c>
       <c r="E93" t="n">
-        <v>2.36847928867147</v>
+        <v>1.726421680646279</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6362850819377234</v>
+        <v>-0.837257781555124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05434832607200028</v>
+        <v>-0.113526543372591</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.00163623484182714</v>
       </c>
       <c r="E94" t="n">
-        <v>2.324429637768755</v>
+        <v>1.689924858517834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4988259343229421</v>
+        <v>-0.7667286984756884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007052988263194794</v>
+        <v>-0.1249338991068607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02997680311397261</v>
       </c>
       <c r="E95" t="n">
-        <v>2.252008332363501</v>
+        <v>1.689410921589834</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3165812715676274</v>
+        <v>-0.5077964697934851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001068251138560037</v>
+        <v>-0.1078279756737744</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07120803110031752</v>
       </c>
       <c r="E96" t="n">
-        <v>2.097419900546179</v>
+        <v>1.568225469996321</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1579236857209427</v>
+        <v>-0.2925722407607247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00873934380819434</v>
+        <v>-0.06096189200369603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1182907904296171</v>
       </c>
       <c r="E97" t="n">
-        <v>1.96158724650467</v>
+        <v>1.447759822111626</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.05258997625042555</v>
+        <v>-0.09263617528786934</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03705798465933881</v>
+        <v>-0.1888051628917526</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1666170359047065</v>
       </c>
       <c r="E98" t="n">
-        <v>1.808509964461438</v>
+        <v>1.388090576732369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04288548851027608</v>
+        <v>0.06340208428372511</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02882915361897739</v>
+        <v>-0.1332474129364948</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2112230843591227</v>
       </c>
       <c r="E99" t="n">
-        <v>1.604469703805039</v>
+        <v>1.210696193735053</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08740819499444594</v>
+        <v>0.09317976509780802</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08546587911341673</v>
+        <v>-0.2186543860622901</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2487633894438014</v>
       </c>
       <c r="E100" t="n">
-        <v>1.469781727466802</v>
+        <v>1.165374840945157</v>
       </c>
       <c r="F100" t="n">
-        <v>0.194854594052508</v>
+        <v>0.2305878110294075</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1362770127251303</v>
+        <v>-0.2575033456651887</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2770690911469359</v>
       </c>
       <c r="E101" t="n">
-        <v>1.293933535397758</v>
+        <v>1.030872290714465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2178926928789564</v>
+        <v>0.2077906201379591</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04694689037906343</v>
+        <v>-0.07426731025614701</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2939748850026367</v>
       </c>
       <c r="E102" t="n">
-        <v>1.156732816295068</v>
+        <v>1.003286142084836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2014175102211426</v>
+        <v>0.1816323985412388</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1560548241645796</v>
+        <v>-0.2115687726771101</v>
       </c>
     </row>
   </sheetData>
